--- a/excel_output.xlsx
+++ b/excel_output.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
   <si>
     <t xml:space="preserve">Họ Tên:</t>
   </si>
@@ -97,21 +97,6 @@
     <t>Mr/Mrs Ha</t>
   </si>
   <si>
-    <t>Toan</t>
-  </si>
-  <si>
-    <t>Ly</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Hoa</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Họ Tên:</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
   </si>
   <si>
     <t>Điểm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr/Mrs </t>
   </si>
   <si>
     <t>Danh sách môn học</t>
@@ -230,7 +212,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,307 +325,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,7 +524,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
@@ -845,18 +539,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,7 +563,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -885,15 +579,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -992,346 +686,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" t="s" s="28">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s" s="29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="30">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="32">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s" s="33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="34">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s" s="35">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="36">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s" s="37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="38">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="40">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s" s="41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="42">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s" s="43">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="44">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s" s="45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="46">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s" s="47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="48">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s" s="49">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="50">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s" s="51">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="52">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s" s="53">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="54">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s" s="55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="56">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s" s="57">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="58">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s" s="59">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="60">
-        <v>24</v>
-      </c>
-      <c r="B37" t="s" s="61">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="62">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s" s="63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="64">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s" s="65">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="66">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s" s="67">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="68">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s" s="69">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="70">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s" s="71">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="72">
-        <v>21</v>
-      </c>
-      <c r="B43" t="s" s="73">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="74">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s" s="75">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="76">
-        <v>24</v>
-      </c>
-      <c r="B45" t="s" s="77">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="s" s="78">
-        <v>25</v>
-      </c>
-      <c r="D50" t="s" s="79">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="s" s="80">
-        <v>26</v>
-      </c>
-      <c r="D51" t="s" s="81">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="s" s="82">
-        <v>28</v>
-      </c>
-      <c r="D52" t="s" s="83">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="s" s="84">
-        <v>26</v>
-      </c>
-      <c r="D53" t="s" s="85">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="s" s="86">
-        <v>28</v>
-      </c>
-      <c r="D54" t="s" s="87">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="s" s="88">
-        <v>26</v>
-      </c>
-      <c r="D55" t="s" s="89">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="s" s="90">
-        <v>28</v>
-      </c>
-      <c r="D56" t="s" s="91">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="s" s="92">
-        <v>26</v>
-      </c>
-      <c r="D57" t="s" s="93">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="s" s="94">
-        <v>28</v>
-      </c>
-      <c r="D58" t="s" s="95">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="s" s="96">
-        <v>26</v>
-      </c>
-      <c r="D59" t="s" s="97">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="s" s="98">
-        <v>28</v>
-      </c>
-      <c r="D60" t="s" s="99">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="s" s="100">
-        <v>26</v>
-      </c>
-      <c r="D61" t="s" s="101">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="s" s="102">
-        <v>28</v>
-      </c>
-      <c r="D62" t="s" s="103">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" t="s" s="30">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
